--- a/Shooting.xlsx
+++ b/Shooting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Estudos\PosCD\Projeto Aplicado\Dados Coletados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F04BBA4-CD65-4043-9595-72469968CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13850DCF-BB00-4BDE-8561-0D7B5CBA65F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>Standard</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>Alan Carvalho</t>
-  </si>
-  <si>
-    <t>Squad Total</t>
   </si>
   <si>
     <t>Pkatt</t>
@@ -1099,7 +1096,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>18</v>
@@ -1225,10 +1222,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1289,10 +1286,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1351,7 +1348,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" ref="T4:T35" si="4">S4/G4</f>
+        <f t="shared" ref="T4:T34" si="4">S4/G4</f>
         <v>0.14153846153846153</v>
       </c>
       <c r="U4" s="2">
@@ -1364,10 +1361,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -1442,7 +1439,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -1517,7 +1514,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -1592,7 +1589,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
@@ -1667,7 +1664,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -1742,7 +1739,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -1817,7 +1814,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -1892,7 +1889,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -1967,7 +1964,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>31</v>
@@ -2042,7 +2039,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
@@ -2117,7 +2114,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
@@ -2192,7 +2189,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -2267,7 +2264,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -2342,7 +2339,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -2406,7 +2403,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>27</v>
@@ -2481,7 +2478,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
@@ -2556,7 +2553,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
@@ -2628,7 +2625,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>47</v>
@@ -2700,7 +2697,7 @@
         <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
@@ -2772,7 +2769,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
@@ -2844,7 +2841,7 @@
         <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>31</v>
@@ -2919,7 +2916,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
@@ -2991,7 +2988,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>29</v>
@@ -3066,7 +3063,7 @@
         <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>31</v>
@@ -3141,7 +3138,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>31</v>
@@ -3216,7 +3213,7 @@
         <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>31</v>
@@ -3291,7 +3288,7 @@
         <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
@@ -3355,7 +3352,7 @@
         <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
@@ -3430,7 +3427,7 @@
         <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>38</v>
@@ -3502,7 +3499,7 @@
         <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>31</v>
@@ -3573,86 +3570,28 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="3">
-        <f>AVERAGE(D3:D34)</f>
-        <v>26.90625</v>
-      </c>
-      <c r="E35" s="2">
-        <v>38</v>
-      </c>
-      <c r="F35" s="2">
-        <f>SUM(F3:F34)</f>
-        <v>62</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" ref="G35:H35" si="7">SUM(G3:G34)</f>
-        <v>548</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="7"/>
-        <v>187</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="0"/>
-        <v>34.124087591240873</v>
-      </c>
-      <c r="J35" s="3">
-        <f>G35/E35</f>
-        <v>14.421052631578947</v>
-      </c>
-      <c r="K35" s="3">
-        <f t="shared" si="2"/>
-        <v>4.9210526315789478</v>
-      </c>
-      <c r="L35" s="3">
-        <f>F35/G35</f>
-        <v>0.11313868613138686</v>
-      </c>
-      <c r="M35" s="3">
-        <f>F35/H35</f>
-        <v>0.33155080213903743</v>
-      </c>
-      <c r="N35" s="3">
-        <f>AVERAGE(N3:N34)</f>
-        <v>18.834482758620688</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" ref="O35:Q35" si="8">SUM(O3:O34)</f>
-        <v>22</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="R35" s="2">
-        <f>SUM(R3:R34)</f>
-        <v>50.900000000000006</v>
-      </c>
-      <c r="S35" s="2">
-        <f t="shared" ref="S35" si="9">SUM(S3:S34)</f>
-        <v>47.800000000000004</v>
-      </c>
-      <c r="T35" s="3">
-        <f>S35/G35</f>
-        <v>8.7226277372262781E-2</v>
-      </c>
-      <c r="U35" s="2">
-        <f t="shared" si="6"/>
-        <v>11.099999999999994</v>
-      </c>
-      <c r="V35" s="2">
-        <f t="shared" ref="V35" si="10">SUM(V3:V34)</f>
-        <v>10.200000000000003</v>
-      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
